--- a/homework/homework_1103/testData.xlsx
+++ b/homework/homework_1103/testData.xlsx
@@ -16,53 +16,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "18688773467", "pwd": "123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "18688773467", "pwd": "1234567"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "18688773467", "amount": "100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +79,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,14 +107,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -409,13 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="68.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -432,7 +442,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -441,28 +451,47 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>10001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>20111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D4">
+        <v>10001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
